--- a/biology/Médecine/Fosse_lombaire/Fosse_lombaire.xlsx
+++ b/biology/Médecine/Fosse_lombaire/Fosse_lombaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse lombaire est une région anatomique superficielle paire située entre le rachis lombaire médialement, la cage thoracique en haut, le bassin en bas, et le flanc latéralement.
-En cas de douleur située à ce niveau, plusieurs causes peuvent être évoquées : le plus souvent d'origine rénale (colique néphrétique principalement, mais aussi infarctus rénal, pyélonéphrite aiguë) ou plus largement rétropéritonéale, voire d'origine digestive (appendicite rétrocœcale) ou gynécologique[1].
+En cas de douleur située à ce niveau, plusieurs causes peuvent être évoquées : le plus souvent d'origine rénale (colique néphrétique principalement, mais aussi infarctus rénal, pyélonéphrite aiguë) ou plus largement rétropéritonéale, voire d'origine digestive (appendicite rétrocœcale) ou gynécologique.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ S. Ovtchinnikoff, G. Rus, F. Vivens Austruy, S. David, F.M. Lopez, « Fosse lombaire », Journal de Radiologie, volume 89, numéro 10, 2008, page 1275, DOI 10.1016/S0221-0363(08)75799-8, lire en ligne
